--- a/excel/por manual/local/venezuela.xlsx
+++ b/excel/por manual/local/venezuela.xlsx
@@ -558,7 +558,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CULTR</t>
         </is>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACÍO</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>CERRADO</t>
         </is>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GRP</t>
         </is>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>GOVT</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>HATE</t>
         </is>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>GOVT</t>
         </is>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11317,7 +11317,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -11846,7 +11846,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>FILE</t>
         </is>
       </c>
     </row>
@@ -12420,7 +12420,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12502,7 +12502,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -12912,7 +12912,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>A LA VENTA</t>
         </is>
       </c>
     </row>
@@ -12994,7 +12994,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>EXCEPCIÓN (SIN ACCESO POSIBLE)</t>
         </is>
       </c>
     </row>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>NOACCESIBLE</t>
+          <t>VACIO</t>
         </is>
       </c>
     </row>
